--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pnoc-Oprl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pnoc-Oprl1.xlsx
@@ -531,10 +531,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.108877</v>
+        <v>0.2161823333333333</v>
       </c>
       <c r="H2">
-        <v>0.326631</v>
+        <v>0.648547</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.007803867852000001</v>
+        <v>0.015495084924</v>
       </c>
       <c r="R2">
-        <v>0.07023481066800001</v>
+        <v>0.139455764316</v>
       </c>
       <c r="S2">
         <v>1</v>
